--- a/data/trans_dic/P53_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P53_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior</t>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>29,11%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>29,57%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>28,58%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>21,87%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>22,85%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>23,81%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>22,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 22,02</t>
+          <t>10,33; 23,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 24,93</t>
+          <t>10,39; 26,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 28,5</t>
+          <t>11,32; 31,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 28,23</t>
+          <t>10,91; 31,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,62; 37,77</t>
+          <t>5,18; 19,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 39,26</t>
+          <t>21,18; 37,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,1; 39,81</t>
+          <t>20,23; 37,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,66; 37,58</t>
+          <t>20,86; 39,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 27,75</t>
+          <t>20,8; 37,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 28,59</t>
+          <t>3,28; 19,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,61; 31,37</t>
+          <t>16,85; 27,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 29,64</t>
+          <t>17,09; 27,97</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 32,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 31,8</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 15,78</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>22,54%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,79%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 31,65</t>
+          <t>12,77; 34,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,65; 30,0</t>
+          <t>10,13; 31,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 36,16</t>
+          <t>15,13; 41,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 45,63</t>
+          <t>19,59; 47,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 28,73</t>
+          <t>7,75; 33,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 27,35</t>
+          <t>17,2; 29,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 31,6</t>
+          <t>12,83; 25,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 32,78</t>
+          <t>15,39; 30,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 29,94</t>
+          <t>18,15; 32,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 25,08</t>
+          <t>5,02; 14,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 32,75</t>
+          <t>16,71; 29,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,53; 36,71</t>
+          <t>12,88; 25,04</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 33,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 36,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,26; 22,49</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>18,65%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>22,3%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 24,37</t>
+          <t>11,73; 24,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,95; 37,89</t>
+          <t>17,45; 34,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 31,62</t>
+          <t>14,29; 30,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 34,77</t>
+          <t>11,63; 33,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 25,06</t>
+          <t>4,95; 16,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 22,23</t>
+          <t>14,98; 24,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 21,33</t>
+          <t>12,87; 22,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,85</t>
+          <t>11,74; 21,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,64</t>
+          <t>9,11; 16,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 28,58</t>
+          <t>4,73; 11,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,43; 24,65</t>
+          <t>15,17; 22,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 23,99</t>
+          <t>16,7; 26,42</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 23,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 22,87</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 11,96</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>16,62%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,8%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>26,87%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,64%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>21,87%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>23,45%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,29</t>
+          <t>12,48; 21,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 24,53</t>
+          <t>13,23; 25,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 26,34</t>
+          <t>11,93; 25,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 29,45</t>
+          <t>13,39; 28,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 32,83</t>
+          <t>6,96; 15,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 34,7</t>
+          <t>22,12; 32,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 30,65</t>
+          <t>23,51; 34,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,38; 30,13</t>
+          <t>18,98; 29,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,69</t>
+          <t>19,54; 29,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 27,93</t>
+          <t>11,57; 20,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 26,21</t>
+          <t>18,75; 25,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,24; 27,72</t>
+          <t>20,13; 27,67</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 24,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 26,57</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 15,89</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1366,72 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>37,1%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>39,12%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>34,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>29,73%</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30,13%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>31,02%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>30,82%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>30,93%</t>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 29,35</t>
+          <t>17,08; 29,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,1; 31,09</t>
+          <t>16,44; 31,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 36,34</t>
+          <t>19,55; 35,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,9; 36,47</t>
+          <t>20,76; 35,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 44,35</t>
+          <t>12,79; 24,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,96; 46,46</t>
+          <t>31,2; 44,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,24; 44,3</t>
+          <t>30,52; 45,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,72; 43,02</t>
+          <t>27,87; 43,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,54; 34,94</t>
+          <t>27,43; 42,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,24; 36,81</t>
+          <t>19,97; 35,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,4; 37,19</t>
+          <t>25,41; 33,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,1; 36,98</t>
+          <t>25,21; 35,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 36,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>26,09; 37,11</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 27,69</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,47%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>41,42%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>33,79%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>33,61%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>34,76%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>35,53%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>33,95%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 37,15</t>
+          <t>23,57; 37,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,82; 34,76</t>
+          <t>18,31; 32,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 30,46</t>
+          <t>14,57; 30,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 30,06</t>
+          <t>14,65; 28,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,82; 57,28</t>
+          <t>16,35; 31,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,6; 49,49</t>
+          <t>44,0; 57,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,31; 54,57</t>
+          <t>34,05; 50,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,13; 54,72</t>
+          <t>37,05; 55,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,69; 47,29</t>
+          <t>39,1; 57,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,5; 39,68</t>
+          <t>33,38; 53,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,13; 40,44</t>
+          <t>36,46; 46,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,39; 40,65</t>
+          <t>28,65; 39,71</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>27,99; 41,1</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>29,93; 42,05</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>27,96; 40,97</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>30,83%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>28,46%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>25,64%</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>25,17%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>24,4%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>16,62%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,06; 23,6</t>
+          <t>18,02; 23,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 25,43</t>
+          <t>18,08; 24,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,98; 25,83</t>
+          <t>18,23; 25,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,55; 27,78</t>
+          <t>19,61; 27,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,05; 33,5</t>
+          <t>11,71; 17,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,94; 31,42</t>
+          <t>28,16; 33,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,96; 30,63</t>
+          <t>25,82; 31,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,68; 30,23</t>
+          <t>25,1; 31,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,86; 27,62</t>
+          <t>24,63; 30,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 27,48</t>
+          <t>16,02; 22,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,8; 26,8</t>
+          <t>23,79; 27,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 27,93</t>
+          <t>22,63; 26,57</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 27,28</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 27,96</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 19,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60786</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64776</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59037</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66056</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>43903</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>99063</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91048</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>81076</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>88784</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30749</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>155824</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>140113</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>154840</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>74653</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40342; 90564</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39487; 99500</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34376; 96157</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36108; 102747</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20293; 76666</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72070; 126545</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66173; 121058</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57419; 108721</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64626; 115936</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12312; 73618</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>123165; 200161</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>120874; 197830</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>105632; 186664</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>112434; 204068</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>41940; 121005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105980</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>87950</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94366</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>135519</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>81890</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>108214</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>87059</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68585</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>88096</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43956</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>214194</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>175010</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>162950</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>223615</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>125845</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>66026; 179316</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51738; 158527</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>57329; 156084</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>90399; 217499</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41257; 176462</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>82569; 142045</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61509; 122883</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46869; 92413</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64455; 116891</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23683; 67345</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>166609; 296070</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>127555; 247886</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>117413; 229541</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>165002; 300333</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>82955; 225944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109741</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>167708</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>90766</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>104936</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54684</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>130474</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>118187</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75885</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68858</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50229</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>240215</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>285896</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>166651</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>173794</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>104912</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74388; 154695</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>117350; 229251</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>61530; 131959</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58489; 166745</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30514; 100422</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>97980; 160079</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88066; 151805</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55898; 100154</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49328; 91606</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31322; 74147</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>195398; 294942</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>226653; 358502</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>132287; 214332</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>124599; 238892</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>72422; 152869</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>100187</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>110104</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70899</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>90685</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60947</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>170173</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>181156</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>102148</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>109823</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>90684</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>270360</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>291260</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>173047</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>200509</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>151632</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75262; 129790</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>81307; 156110</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50902; 107099</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61825; 131320</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40838; 88760</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>140122; 203032</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>146943; 217248</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80041; 126385</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90038; 137284</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>67913; 122171</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>231857; 319143</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>249488; 342919</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>139684; 207790</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>164068; 245053</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>119667; 186457</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>113129</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>107213</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>84146</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>99169</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>82275</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>163750</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>167996</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>101470</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>114325</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>122200</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>276879</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>275209</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>185616</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>213494</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>204475</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83652; 144672</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>76366; 144938</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>62526; 114066</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>74536; 127949</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58916; 110536</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137731; 194354</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>137092; 203982</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>79334; 124265</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>90296; 139686</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>90876; 163094</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>236674; 316565</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>230276; 325953</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>152404; 221781</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>179567; 255386</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>163964; 253503</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>152631</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>130659</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>64186</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>72012</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>120097</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>288296</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>237906</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>152478</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>192791</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>257204</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>440928</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>368566</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>216665</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>264803</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>377301</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>117876; 185442</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>94969; 168358</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42614; 87796</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>50094; 97879</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>82662; 161118</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>248421; 325559</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>195299; 286836</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>122575; 183667</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>157652; 230679</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>202158; 322616</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>388194; 496022</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>312989; 433780</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>174467; 256182</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>223037; 313344</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>310712; 455305</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>644.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>642453</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>668410</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>463400</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>568376</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>443796</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>959972</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>883354</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>581641</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>662677</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>595022</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1602424</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1551764</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1045042</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1231054</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1038818</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>564863; 731743</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>571561; 769936</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>392346; 555096</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>482043; 678961</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>362058; 552513</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>876814; 1042530</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>810442; 979735</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>525341; 653518</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>591300; 734176</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>505580; 698640</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1486431; 1720493</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1425375; 1673994</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>957706; 1158224</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1110552; 1358534</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>925461; 1196643</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>